--- a/GameData/Excel/reward.xlsx
+++ b/GameData/Excel/reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118752D8-123F-4D32-A34B-4CD7773444CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C94D9D-DF24-4340-B3E7-B4023D8C2ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9624" yWindow="3996" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="9630" yWindow="3990" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="reward" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>확률 가중치</t>
-  </si>
-  <si>
-    <t>exception_type</t>
   </si>
   <si>
     <t>enum:exception_type</t>
@@ -118,6 +115,10 @@
   </si>
   <si>
     <t>own_spell_source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,23 +180,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -213,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,9 +220,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -259,9 +246,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +286,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -405,7 +392,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -555,27 +542,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.796875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="1"/>
+    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -601,82 +588,82 @@
         <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="J3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>1001</v>
@@ -691,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1001</v>
       </c>
@@ -699,7 +686,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>1002</v>
@@ -714,18 +701,18 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1">
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -734,7 +721,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -746,13 +733,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1002</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -760,7 +744,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -771,13 +755,19 @@
       <c r="H7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -786,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="1">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -797,25 +787,19 @@
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1004</v>
+        <v>2001</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="1">
         <v>1001</v>
@@ -830,27 +814,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/reward.xlsx
+++ b/GameData/Excel/reward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C94D9D-DF24-4340-B3E7-B4023D8C2ABE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440A95E-C5B5-42C9-A657-053CDC17B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9630" yWindow="3990" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="reward" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -46,9 +57,6 @@
     <t>reward_type</t>
   </si>
   <si>
-    <t>enum:reward_type</t>
-  </si>
-  <si>
     <t>지급할 보상 타입</t>
   </si>
   <si>
@@ -119,6 +127,10 @@
   </si>
   <si>
     <t>exception_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:reward_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +215,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,10 +234,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -246,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -286,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -392,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,7 +555,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -576,51 +585,51 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -631,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -646,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.3">
@@ -657,13 +666,13 @@
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>1001</v>
@@ -686,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>1002</v>
@@ -701,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1">
         <v>1001</v>
@@ -712,13 +721,13 @@
         <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>1003</v>
@@ -741,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>1004</v>
@@ -756,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1">
         <v>1001</v>
@@ -767,13 +776,13 @@
         <v>1003</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
         <v>1005</v>
@@ -793,13 +802,13 @@
         <v>2001</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E9" s="1">
         <v>1001</v>
@@ -819,13 +828,13 @@
         <v>2001</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>1003</v>
@@ -845,13 +854,13 @@
         <v>2002</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E11" s="1">
         <v>1001</v>
@@ -866,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1">
         <v>1001</v>
@@ -877,13 +886,13 @@
         <v>2003</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="1">
         <v>1001</v>
